--- a/LaserQt/cache/path.xlsx
+++ b/LaserQt/cache/path.xlsx
@@ -117,336 +117,337 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="n">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
         <v>0.52</v>
       </c>
-      <c r="B1" s="1" t="n">
+      <c r="B2" s="1" t="n">
         <v>0.64</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="C2" s="1" t="n">
         <v>1.91</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="D2" s="1" t="n">
         <v>0.06</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="E2" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="F2" s="1" t="n">
         <v>770</v>
       </c>
-      <c r="G1" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+      <c r="G2" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
         <v>0.36</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B3" s="1" t="n">
         <v>0.15</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C3" s="1" t="n">
         <v>0.24</v>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="D3" s="1" t="n">
         <v>0.91</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="E3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="F3" s="1" t="n">
         <v>677</v>
       </c>
-      <c r="G2" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+      <c r="G3" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
         <v>0.83</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B4" s="1" t="n">
         <v>0.71</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C4" s="1" t="n">
         <v>1.04</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D4" s="1" t="n">
         <v>0.63</v>
       </c>
-      <c r="E3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1" t="n">
+      <c r="E4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="n">
         <v>737</v>
       </c>
-      <c r="G3" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+      <c r="G4" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
         <v>1.12</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B5" s="1" t="n">
         <v>0.49</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C5" s="1" t="n">
         <v>0.42</v>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="D5" s="1" t="n">
         <v>0.11</v>
       </c>
-      <c r="E4" s="1" t="n">
+      <c r="E5" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F4" s="1" t="n">
+      <c r="F5" s="1" t="n">
         <v>664</v>
       </c>
-      <c r="G4" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+      <c r="G5" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
         <v>0.77</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B6" s="1" t="n">
         <v>0.22</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C6" s="1" t="n">
         <v>0.07</v>
       </c>
-      <c r="D5" s="1" t="n">
+      <c r="D6" s="1" t="n">
         <v>0.9</v>
       </c>
-      <c r="E5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1" t="n">
+      <c r="E6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="n">
         <v>673</v>
       </c>
-      <c r="G5" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+      <c r="G6" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
         <v>1.34</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B7" s="1" t="n">
         <v>0.44</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C7" s="1" t="n">
         <v>0.98</v>
       </c>
-      <c r="D6" s="1" t="n">
+      <c r="D7" s="1" t="n">
         <v>0.17</v>
       </c>
-      <c r="E6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1" t="n">
+      <c r="E7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="n">
         <v>739</v>
       </c>
-      <c r="G6" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+      <c r="G7" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
         <v>0.54</v>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B8" s="1" t="n">
         <v>0.77</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C8" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="D7" s="1" t="n">
+      <c r="D8" s="1" t="n">
         <v>0.16</v>
       </c>
-      <c r="E7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1" t="n">
+      <c r="E8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1" t="n">
         <v>744</v>
       </c>
-      <c r="G7" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+      <c r="G8" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
         <v>1.76</v>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B9" s="1" t="n">
         <v>0.24</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C9" s="1" t="n">
         <v>0.94</v>
       </c>
-      <c r="D8" s="1" t="n">
+      <c r="D9" s="1" t="n">
         <v>0.69</v>
-      </c>
-      <c r="E8" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F8" s="1" t="n">
-        <v>694</v>
-      </c>
-      <c r="G8" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="D9" s="1" t="n">
-        <v>0.87</v>
       </c>
       <c r="E9" s="1" t="n">
         <v>3</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
-        <v>0.03</v>
+        <v>0.76</v>
       </c>
       <c r="B10" s="1" t="n">
-        <v>0.38</v>
+        <v>0.66</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>0.65</v>
+        <v>0.87</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>3</v>
       </c>
       <c r="F10" s="1" t="n">
+        <v>697</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F11" s="1" t="n">
         <v>660</v>
       </c>
-      <c r="G10" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+      <c r="G11" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
         <v>1.32</v>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B12" s="1" t="n">
         <v>0.71</v>
       </c>
-      <c r="C11" s="1" t="n">
+      <c r="C12" s="1" t="n">
         <v>0.32</v>
       </c>
-      <c r="D11" s="1" t="n">
+      <c r="D12" s="1" t="n">
         <v>0.98</v>
       </c>
-      <c r="E11" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1" t="n">
-        <v>726</v>
-      </c>
-      <c r="G11" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="D12" s="1" t="n">
-        <v>0.26</v>
-      </c>
       <c r="E12" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12" s="1" t="n">
         <v>726</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>726</v>
+      </c>
+      <c r="G13" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
         <v>1.99</v>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B14" s="1" t="n">
         <v>0.18</v>
       </c>
-      <c r="C13" s="1" t="n">
+      <c r="C14" s="1" t="n">
         <v>1.59</v>
       </c>
-      <c r="D13" s="1" t="n">
+      <c r="D14" s="1" t="n">
         <v>0.24</v>
       </c>
-      <c r="E13" s="1" t="n">
+      <c r="E14" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F13" s="1" t="n">
+      <c r="F14" s="1" t="n">
         <v>733</v>
       </c>
-      <c r="G13" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+      <c r="G14" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
         <v>1.98</v>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B15" s="1" t="n">
         <v>0.66</v>
       </c>
-      <c r="C14" s="1" t="n">
+      <c r="C15" s="1" t="n">
         <v>1.35</v>
       </c>
-      <c r="D14" s="1" t="n">
+      <c r="D15" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="E14" s="1" t="n">
+      <c r="E15" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F14" s="1" t="n">
+      <c r="F15" s="1" t="n">
         <v>671</v>
       </c>
-      <c r="G14" s="1" t="n">
+      <c r="G15" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -469,12 +470,12 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:G15 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
@@ -495,12 +496,12 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:G15 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>

--- a/LaserQt/cache/path.xlsx
+++ b/LaserQt/cache/path.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -12,24 +12,26 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <charset val="1"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <family val="3"/>
-      <charset val="134"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -54,12 +56,12 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -131,11 +133,6 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -425,17 +422,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1025" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0.52</v>
       </c>
@@ -455,10 +452,10 @@
         <v>770</v>
       </c>
       <c r="G2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>0.36</v>
       </c>
@@ -481,7 +478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>0.83</v>
       </c>
@@ -504,9 +501,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>1.1200000000000001</v>
+        <v>1.12</v>
       </c>
       <c r="B5" s="1">
         <v>0.49</v>
@@ -527,7 +524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>0.77</v>
       </c>
@@ -535,7 +532,7 @@
         <v>0.22</v>
       </c>
       <c r="C6" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07</v>
       </c>
       <c r="D6" s="1">
         <v>0.9</v>
@@ -550,7 +547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>1.34</v>
       </c>
@@ -573,7 +570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>0.54</v>
       </c>
@@ -596,7 +593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>1.76</v>
       </c>
@@ -619,7 +616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>0.76</v>
       </c>
@@ -642,7 +639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>0.03</v>
       </c>
@@ -665,7 +662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>1.32</v>
       </c>
@@ -688,7 +685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>1.62</v>
       </c>
@@ -711,7 +708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>1.99</v>
       </c>
@@ -734,7 +731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>1.98</v>
       </c>
@@ -758,40 +755,33 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1025" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1025" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>